--- a/Source Data/Figure S39.xlsx
+++ b/Source Data/Figure S39.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Figure S37" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure S39" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -401,7 +401,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
